--- a/biology/Zoologie/Girafe_Médicis/Girafe_Médicis.xlsx
+++ b/biology/Zoologie/Girafe_Médicis/Girafe_Médicis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Girafe_M%C3%A9dicis</t>
+          <t>Girafe_Médicis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La girafe Médicis est une girafe qui fut offerte à Laurent de Médicis en 1486, probablement par al-Ashraf Qaitbay, le sultan mamelouk burjite de l'Égypte, dans une tentative diplomatique de se rapprocher des Médicis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Girafe_M%C3%A9dicis</t>
+          <t>Girafe_Médicis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La girafe fit sensation lors de son arrivée à Florence car, même si les Médicis possédaient une grande ménagerie et avaient déjà présenté un mannequin géant d'une girafe, c'était le premier exemplaire vivant à être vu dans la ville.
 Son passage dans les rues de Florence  fut immortalisé par les plus grands peintres : Domenico Ghirlandaio, Raffaello Botticini, Giorgio Vasari et Francesco Bacchiacca, ainsi que par le poète Antonio Costanzo, qui la décrit  en ces termes :
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Girafe_M%C3%A9dicis</t>
+          <t>Girafe_Médicis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Medici giraffe » (voir la liste des auteurs).</t>
         </is>
